--- a/j6/ProudBoys-ExculpatoryChats.xlsx
+++ b/j6/ProudBoys-ExculpatoryChats.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="122">
   <si>
     <t xml:space="preserve">Potentially Exculpatory Telegram Messages</t>
   </si>
@@ -165,7 +165,16 @@
     <t xml:space="preserve">We should ABSOLUTELY have rules of engagement revised with both Antifa/blm and also integration SOP’s for normy “allies” and especially press during events </t>
   </si>
   <si>
+    <t xml:space="preserve">Since this whole chapter is volunteer, I had a thought on how to keep order. I watched a lot of dumb shit go down in DC where Beard was trying to keep the peace and people were pretty much like "fuck him". Acting stupid or putting your bros in danger while performing your duties as part of this chapter should carry severe penalties. You dont have to be here and if you're gonna be here you are agreeing to act with some honor and dignity. </t>
+  </si>
+  <si>
     <t xml:space="preserve">As far as “investigating” agitators, | think that it is clearly a case by case type situation. Seeing one rainbow shield wielding larpist screaming my body my choice is clearly a nothing to see here type situation. However, if we have an active body of scout types prowling and regrouping at different points in a March, we do the same and post watches in critical areas which may be breached for instance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travis Vancouver PB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We should all be meeting the night of the 5th and go over ground rules. We always have done that in Portland and it’s worked well. There will always be shit that goes sideways or shit we don’t agree on or that makes us look bad but as long as the masses stick together we good. </t>
   </si>
   <si>
     <t xml:space="preserve">That’s how people got stabbed. One guy saying shit and 30 pbs go after him. We cannot be the aggressor like that. We just need to stay in formation and don’t let anyone that is not a PB within the group. We also cannot just hang in the streets like we did in front of Harris. </t>
@@ -680,10 +689,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -961,548 +970,550 @@
       </c>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" s="10" customFormat="true" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="10" customFormat="true" ht="181.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
+        <v>44195.827337963</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" s="10" customFormat="true" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
         <v>44195.6989351852</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" s="10" customFormat="true" ht="125.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+      <c r="D21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" s="10" customFormat="true" ht="125.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="n">
+        <v>44195.6551736111</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" s="10" customFormat="true" ht="125.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="n">
         <v>44195.443900463</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" s="10" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+      <c r="D23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" s="10" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="n">
         <v>44196.7282638889</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" s="10" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+      <c r="B24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" s="10" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="n">
         <v>44196.7282638889</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" customFormat="false" ht="178.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="n">
+      <c r="C25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="178.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="n">
         <v>44194.5940856482</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="36.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="n">
-        <v>44198.6402777778</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="36.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="n">
-        <v>44198.6416666667</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="36.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="n">
+        <v>44198.6402777778</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="n">
+      <c r="C27" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="36.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15" t="n">
+        <v>44198.6416666667</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="n">
         <v>44198.8496990741</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="n">
+      <c r="B29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="n">
         <v>44198.8576388889</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="n">
+      <c r="C30" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="n">
         <v>44198.8581018519</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="0" t="s">
+      <c r="B31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="n">
-        <v>44199.7982986111</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="68.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="n">
-        <v>44199.8016319444</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>59</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="55.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="n">
-        <v>44199.8881944445</v>
+        <v>44199.7982986111</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="102.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="68.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="n">
-        <v>44199.9743055556</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>49</v>
+        <v>44199.8016319444</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="127.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="55.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="n">
+        <v>44199.8881944445</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="102.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="16" t="n">
+        <v>44199.9743055556</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="127.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16" t="n">
         <v>44200.1027777778</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="147.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="n">
-        <v>44200.1069444444</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="n">
-        <v>44200.1208333333</v>
-      </c>
       <c r="B36" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" s="10" customFormat="true" ht="99.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="n">
+    <row r="37" customFormat="false" ht="147.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="16" t="n">
+        <v>44200.1069444444</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15" t="n">
+        <v>44200.1208333333</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" s="10" customFormat="true" ht="99.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="15" t="n">
         <v>44200.8243055556</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="208.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="n">
+      <c r="B39" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="208.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="15" t="n">
         <v>44200.8730324074</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="n">
+      <c r="B40" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="15" t="n">
         <v>44200.4034722222</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="n">
+      <c r="B41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="15" t="n">
         <v>44200.6770833333</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="n">
+      <c r="B42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="15" t="n">
         <v>44200.7159722222</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="n">
+      <c r="B43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15" t="n">
         <v>44201.8993981482</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="n">
-        <v>44201.9033101852</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="n">
-        <v>44201.7238425926</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="n">
-        <v>44201.7404166667</v>
+        <v>44201.9033101852</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C45" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="n">
-        <v>44201.7407175926</v>
+        <v>44201.7238425926</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C46" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="13" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="15" t="n">
+        <v>44201.7404166667</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="n">
-        <v>44201.741412037</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="n">
-        <v>44201.7441782407</v>
+        <v>44201.7407175926</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="93.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="n">
-        <v>44201.7496064815</v>
+        <v>44201.741412037</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="n">
-        <v>44201.8134143519</v>
+        <v>44201.7441782407</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C50" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="13" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="93.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15" t="n">
+        <v>44201.7496064815</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="n">
-        <v>44201.8798611111</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="n">
+        <v>44201.8134143519</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15" t="n">
+        <v>44201.8798611111</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15" t="n">
         <v>44201.8899305556</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="n">
-        <v>44201.8906365741</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="104.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="n">
-        <v>44201.9730555556</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="n">
-        <v>44202.4667361111</v>
+        <v>44201.8906365741</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="36.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="104.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="n">
-        <v>44202.4670486111</v>
+        <v>44201.9730555556</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="n">
-        <v>44202.4673148148</v>
+        <v>44202.4667361111</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="95.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="36.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="n">
-        <v>44202.4734722222</v>
+        <v>44202.4670486111</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>7</v>
@@ -1511,130 +1522,158 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="n">
+        <v>44202.4673148148</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="95.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="15" t="n">
+        <v>44202.4734722222</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="n">
         <v>44202.5118055556</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="n">
+      <c r="B61" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15" t="n">
         <v>44202.6587152778</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B62" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="15" t="n">
+        <v>44202.7148032407</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="15" t="n">
+        <v>44203.3904166667</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="n">
-        <v>44202.7148032407</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15" t="n">
-        <v>44203.3904166667</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="0" t="s">
+      <c r="C64" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="15" t="n">
-        <v>44203.3916087963</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="15" t="n">
-        <v>44203.3920138889</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="n">
-        <v>44203.3921064815</v>
+        <v>44203.3916087963</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17" t="n">
-        <v>44216</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="15" t="n">
+        <v>44203.3920138889</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>59</v>
+        <v>84</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="102.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17" t="n">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="15" t="n">
+        <v>44203.3921064815</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="17" t="n">
         <v>44216</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="B68" s="12" t="s">
         <v>118</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="102.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="17" t="n">
+        <v>44216</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1660,52 +1699,54 @@
     <hyperlink ref="B19" r:id="rId16" display="MOSD MAIN"/>
     <hyperlink ref="B20" r:id="rId17" display="MOSD MAIN"/>
     <hyperlink ref="B21" r:id="rId18" display="MOSD MAIN"/>
-    <hyperlink ref="B22" r:id="rId19" display="Official Presidents Chat"/>
-    <hyperlink ref="B23" r:id="rId20" display="Official Presidents Chat"/>
-    <hyperlink ref="B24" r:id="rId21" display="MOSD Main (Voice Note)"/>
-    <hyperlink ref="B25" r:id="rId22" display="MOSD Op"/>
-    <hyperlink ref="B26" r:id="rId23" display="MOSD Op"/>
-    <hyperlink ref="B27" r:id="rId24" display="MOSD (Voice Note)"/>
-    <hyperlink ref="B28" r:id="rId25" display="MOSD (Voice Note)"/>
+    <hyperlink ref="B22" r:id="rId19" display="MOSD MAIN"/>
+    <hyperlink ref="B23" r:id="rId20" display="MOSD MAIN"/>
+    <hyperlink ref="B24" r:id="rId21" display="Official Presidents Chat"/>
+    <hyperlink ref="B25" r:id="rId22" display="Official Presidents Chat"/>
+    <hyperlink ref="B26" r:id="rId23" display="MOSD Main (Voice Note)"/>
+    <hyperlink ref="B27" r:id="rId24" display="MOSD Op"/>
+    <hyperlink ref="B28" r:id="rId25" display="MOSD Op"/>
     <hyperlink ref="B29" r:id="rId26" display="MOSD (Voice Note)"/>
     <hyperlink ref="B30" r:id="rId27" display="MOSD (Voice Note)"/>
-    <hyperlink ref="B31" r:id="rId28" display="MOSD"/>
-    <hyperlink ref="B32" r:id="rId29" display="MOSD Op"/>
-    <hyperlink ref="B33" r:id="rId30" display="MOSD Op"/>
+    <hyperlink ref="B31" r:id="rId28" display="MOSD (Voice Note)"/>
+    <hyperlink ref="B32" r:id="rId29" display="MOSD (Voice Note)"/>
+    <hyperlink ref="B33" r:id="rId30" display="MOSD"/>
     <hyperlink ref="B34" r:id="rId31" display="MOSD Op"/>
     <hyperlink ref="B35" r:id="rId32" display="MOSD Op"/>
     <hyperlink ref="B36" r:id="rId33" display="MOSD Op"/>
-    <hyperlink ref="B37" r:id="rId34" display="MOSD MAIN2"/>
-    <hyperlink ref="B38" r:id="rId35" display="MOSD MAIN 2 (Voice Note)"/>
-    <hyperlink ref="B39" r:id="rId36" display="MOSD Op"/>
-    <hyperlink ref="B40" r:id="rId37" display="MOSD Op"/>
+    <hyperlink ref="B37" r:id="rId34" display="MOSD Op"/>
+    <hyperlink ref="B38" r:id="rId35" display="MOSD Op"/>
+    <hyperlink ref="B39" r:id="rId36" display="MOSD MAIN2"/>
+    <hyperlink ref="B40" r:id="rId37" display="MOSD MAIN 2 (Voice Note)"/>
     <hyperlink ref="B41" r:id="rId38" display="MOSD Op"/>
-    <hyperlink ref="B42" r:id="rId39" display="New MOSD"/>
-    <hyperlink ref="B43" r:id="rId40" display="New MOSD"/>
-    <hyperlink ref="B44" r:id="rId41" display="Boots on the Ground"/>
-    <hyperlink ref="B45" r:id="rId42" display="Boots on the Ground"/>
+    <hyperlink ref="B42" r:id="rId39" display="MOSD Op"/>
+    <hyperlink ref="B43" r:id="rId40" display="MOSD Op"/>
+    <hyperlink ref="B44" r:id="rId41" display="New MOSD"/>
+    <hyperlink ref="B45" r:id="rId42" display="New MOSD"/>
     <hyperlink ref="B46" r:id="rId43" display="Boots on the Ground"/>
     <hyperlink ref="B47" r:id="rId44" display="Boots on the Ground"/>
     <hyperlink ref="B48" r:id="rId45" display="Boots on the Ground"/>
     <hyperlink ref="B49" r:id="rId46" display="Boots on the Ground"/>
     <hyperlink ref="B50" r:id="rId47" display="Boots on the Ground"/>
-    <hyperlink ref="B51" r:id="rId48" display="New MOSD"/>
-    <hyperlink ref="B52" r:id="rId49" display="New MOSD"/>
+    <hyperlink ref="B51" r:id="rId48" display="Boots on the Ground"/>
+    <hyperlink ref="B52" r:id="rId49" display="Boots on the Ground"/>
     <hyperlink ref="B53" r:id="rId50" display="New MOSD"/>
-    <hyperlink ref="B54" r:id="rId51" display="Boots on the Ground"/>
+    <hyperlink ref="B54" r:id="rId51" display="New MOSD"/>
     <hyperlink ref="B55" r:id="rId52" display="New MOSD"/>
-    <hyperlink ref="B56" r:id="rId53" display="New MOSD"/>
+    <hyperlink ref="B56" r:id="rId53" display="Boots on the Ground"/>
     <hyperlink ref="B57" r:id="rId54" display="New MOSD"/>
-    <hyperlink ref="B58" r:id="rId55" display="New MOSD (Voice Note)"/>
-    <hyperlink ref="B59" r:id="rId56" display="MOSD MAIN 2"/>
-    <hyperlink ref="B60" r:id="rId57" display="Boots on the Ground"/>
-    <hyperlink ref="B61" r:id="rId58" display="Boots on the Ground"/>
-    <hyperlink ref="B62" r:id="rId59" display="New MOSD"/>
-    <hyperlink ref="B63" r:id="rId60" display="New MOSD"/>
+    <hyperlink ref="B58" r:id="rId55" display="New MOSD"/>
+    <hyperlink ref="B59" r:id="rId56" display="New MOSD"/>
+    <hyperlink ref="B60" r:id="rId57" display="New MOSD (Voice Note)"/>
+    <hyperlink ref="B61" r:id="rId58" display="MOSD MAIN 2"/>
+    <hyperlink ref="B62" r:id="rId59" display="Boots on the Ground"/>
+    <hyperlink ref="B63" r:id="rId60" display="Boots on the Ground"/>
     <hyperlink ref="B64" r:id="rId61" display="New MOSD"/>
     <hyperlink ref="B65" r:id="rId62" display="New MOSD"/>
-    <hyperlink ref="B66" r:id="rId63" display="MOSD Leaders – Jan. 9"/>
-    <hyperlink ref="B67" r:id="rId64" display="MOSD Leaders – Jan. 9"/>
+    <hyperlink ref="B66" r:id="rId63" display="New MOSD"/>
+    <hyperlink ref="B67" r:id="rId64" display="New MOSD"/>
+    <hyperlink ref="B68" r:id="rId65" display="MOSD Leaders – Jan. 9"/>
+    <hyperlink ref="B69" r:id="rId66" display="MOSD Leaders – Jan. 9"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/j6/ProudBoys-ExculpatoryChats.xlsx
+++ b/j6/ProudBoys-ExculpatoryChats.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="123">
   <si>
     <t xml:space="preserve">Potentially Exculpatory Telegram Messages</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t xml:space="preserve">We're here. We're doing our thing, at least the MoSD guys that showed up. As far as anybody else, not really sure what a -- everybody else is doing as far as, like, you know, the rogue chapters that came out here, so</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You guys see any, uh, resistance out there, or any Antifa presence?</t>
   </si>
   <si>
     <t xml:space="preserve">MOSD MAIN 2</t>
@@ -689,10 +692,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1544,136 +1547,150 @@
         <v>106</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="95.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="n">
+        <v>44202.4743981482</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15" t="n">
         <v>44202.5118055556</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" s="0" t="s">
+      <c r="B62" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="C62" s="0" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15" t="n">
-        <v>44202.6587152778</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="n">
-        <v>44202.7148032407</v>
+        <v>44202.6587152778</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C63" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="15" t="n">
+        <v>44202.7148032407</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="15" t="n">
-        <v>44203.3904166667</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="n">
-        <v>44203.3916087963</v>
+        <v>44203.3904166667</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C65" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="66" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="15" t="n">
-        <v>44203.3920138889</v>
+        <v>44203.3916087963</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>65</v>
+      <c r="C66" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="n">
-        <v>44203.3921064815</v>
+        <v>44203.3920138889</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17" t="n">
-        <v>44216</v>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="15" t="n">
+        <v>44203.3921064815</v>
       </c>
       <c r="B68" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="102.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="69" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="17" t="n">
         <v>44216</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C69" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D69" s="2" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="102.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="17" t="n">
+        <v>44216</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>121</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1738,15 +1755,16 @@
     <hyperlink ref="B58" r:id="rId55" display="New MOSD"/>
     <hyperlink ref="B59" r:id="rId56" display="New MOSD"/>
     <hyperlink ref="B60" r:id="rId57" display="New MOSD (Voice Note)"/>
-    <hyperlink ref="B61" r:id="rId58" display="MOSD MAIN 2"/>
-    <hyperlink ref="B62" r:id="rId59" display="Boots on the Ground"/>
+    <hyperlink ref="B61" r:id="rId58" display="New MOSD (Voice Note)"/>
+    <hyperlink ref="B62" r:id="rId59" display="MOSD MAIN 2"/>
     <hyperlink ref="B63" r:id="rId60" display="Boots on the Ground"/>
-    <hyperlink ref="B64" r:id="rId61" display="New MOSD"/>
+    <hyperlink ref="B64" r:id="rId61" display="Boots on the Ground"/>
     <hyperlink ref="B65" r:id="rId62" display="New MOSD"/>
     <hyperlink ref="B66" r:id="rId63" display="New MOSD"/>
     <hyperlink ref="B67" r:id="rId64" display="New MOSD"/>
-    <hyperlink ref="B68" r:id="rId65" display="MOSD Leaders – Jan. 9"/>
+    <hyperlink ref="B68" r:id="rId65" display="New MOSD"/>
     <hyperlink ref="B69" r:id="rId66" display="MOSD Leaders – Jan. 9"/>
+    <hyperlink ref="B70" r:id="rId67" display="MOSD Leaders – Jan. 9"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
